--- a/Modelos/ORANI/Desagregação/POF/dados/auxiliares/SCN68.xlsx
+++ b/Modelos/ORANI/Desagregação/POF/dados/auxiliares/SCN68.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Universidade\UFPR\- Dissertação\Modelos\ORANI\Desagregação\POF\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Universidade\UFPR\- Dissertação\Modelos\ORANI\Desagregação\POF\dados\auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871D27F2-7442-4FD8-B886-47D615A5B449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32F7486-3898-44EF-BDBC-1292F7373436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Descrição (2010)'!$A$4:$D$215</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Descrição (2020)'!$A$4:$D$227</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SCN68 (2010)'!$A$1:$B$212</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Descrição (2020)'!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="718">
   <si>
     <t>Educação pública</t>
   </si>
@@ -2180,6 +2181,18 @@
   </si>
   <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t>0791</t>
+  </si>
+  <si>
+    <t>Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
+  </si>
+  <si>
+    <t>2091</t>
+  </si>
+  <si>
+    <t>Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
 </sst>
 </file>
@@ -2245,7 +2258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2335,6 +2348,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2743,7 +2759,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="26">
         <v>1101</v>
       </c>
       <c r="B2" s="31">
@@ -2751,7 +2767,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="26">
         <v>1102</v>
       </c>
       <c r="B3" s="31">
@@ -2759,7 +2775,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="26">
         <v>1103</v>
       </c>
       <c r="B4" s="31">
@@ -2767,7 +2783,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="26">
         <v>1104</v>
       </c>
       <c r="B5" s="31">
@@ -2775,7 +2791,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="26">
         <v>1105</v>
       </c>
       <c r="B6" s="31">
@@ -2783,7 +2799,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="26">
         <v>1106</v>
       </c>
       <c r="B7" s="31">
@@ -2791,7 +2807,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="26">
         <v>1107</v>
       </c>
       <c r="B8" s="31">
@@ -2799,7 +2815,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="26">
         <v>1108</v>
       </c>
       <c r="B9" s="31">
@@ -2807,7 +2823,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="26">
         <v>1109</v>
       </c>
       <c r="B10" s="31">
@@ -2815,7 +2831,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="26">
         <v>1110</v>
       </c>
       <c r="B11" s="31">
@@ -2823,7 +2839,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="26">
         <v>1111</v>
       </c>
       <c r="B12" s="31">
@@ -2831,7 +2847,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="26">
         <v>1112</v>
       </c>
       <c r="B13" s="31">
@@ -2839,7 +2855,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="26">
         <v>1113</v>
       </c>
       <c r="B14" s="31">
@@ -2847,7 +2863,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="26">
         <v>1114</v>
       </c>
       <c r="B15" s="31">
@@ -2855,7 +2871,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="26">
         <v>1115</v>
       </c>
       <c r="B16" s="31">
@@ -2863,7 +2879,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="26">
         <v>1116</v>
       </c>
       <c r="B17" s="31">
@@ -2871,7 +2887,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="26">
         <v>1117</v>
       </c>
       <c r="B18" s="31">
@@ -2879,7 +2895,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="26">
         <v>1118</v>
       </c>
       <c r="B19" s="31">
@@ -2887,95 +2903,95 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="26">
+        <v>1401</v>
+      </c>
+      <c r="B20" s="31">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>1201</v>
-      </c>
-      <c r="B20" s="31">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1202</v>
       </c>
       <c r="B21" s="31">
         <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1203</v>
+      <c r="A22" s="26">
+        <v>1202</v>
       </c>
       <c r="B22" s="31">
         <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1204</v>
+      <c r="A23" s="26">
+        <v>1203</v>
       </c>
       <c r="B23" s="31">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>1205</v>
+      <c r="A24" s="26">
+        <v>1204</v>
       </c>
       <c r="B24" s="31">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1206</v>
+      <c r="A25" s="26">
+        <v>1205</v>
       </c>
       <c r="B25" s="31">
         <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1207</v>
+      <c r="A26" s="26">
+        <v>1206</v>
       </c>
       <c r="B26" s="31">
         <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>1208</v>
+      <c r="A27" s="26">
+        <v>1207</v>
       </c>
       <c r="B27" s="31">
         <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1209</v>
+      <c r="A28" s="26">
+        <v>1208</v>
       </c>
       <c r="B28" s="31">
         <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>1300</v>
+      <c r="A29" s="26">
+        <v>1209</v>
       </c>
       <c r="B29" s="31">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1401</v>
+      <c r="A30" s="26">
+        <v>1300</v>
       </c>
       <c r="B30" s="31">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="26">
         <v>1402</v>
       </c>
       <c r="B31" s="31">
@@ -2983,7 +2999,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="26">
         <v>1500</v>
       </c>
       <c r="B32" s="31">
@@ -2991,7 +3007,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="26">
         <v>2001</v>
       </c>
       <c r="B33" s="31">
@@ -2999,7 +3015,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="26">
         <v>2002</v>
       </c>
       <c r="B34" s="31">
@@ -3007,7 +3023,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="26">
         <v>5001</v>
       </c>
       <c r="B35" s="31">
@@ -3015,7 +3031,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="26">
         <v>5002</v>
       </c>
       <c r="B36" s="31">
@@ -3023,1405 +3039,1411 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="26">
+        <v>10000</v>
+      </c>
+      <c r="B37" s="31">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
+        <v>11000</v>
+      </c>
+      <c r="B38" s="31">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
+        <v>14004</v>
+      </c>
+      <c r="B39" s="31">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>12000</v>
+      </c>
+      <c r="B40" s="31">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <v>13001</v>
+      </c>
+      <c r="B41" s="31">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
+        <v>13002</v>
+      </c>
+      <c r="B42" s="31">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
+        <v>14001</v>
+      </c>
+      <c r="B43" s="31">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
+        <v>14002</v>
+      </c>
+      <c r="B44" s="31">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
+        <v>14003</v>
+      </c>
+      <c r="B45" s="31">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
         <v>15010</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B46" s="31">
         <v>1091</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
+        <v>15030</v>
+      </c>
+      <c r="B47" s="31">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26">
+        <v>15041</v>
+      </c>
+      <c r="B48" s="31">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26">
         <v>15021</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B49" s="31">
         <v>1093</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
         <v>15022</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B50" s="31">
         <v>1093</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>15030</v>
-      </c>
-      <c r="B40" s="31">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>15041</v>
-      </c>
-      <c r="B41" s="31">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26">
         <v>15042</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B51" s="31">
         <v>1093</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26">
         <v>15043</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B52" s="31">
         <v>1093</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
         <v>15055</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B53" s="31">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26">
         <v>16000</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B54" s="31">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31">
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="32">
         <v>17001</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B55" s="31">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
+    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
         <v>17002</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B56" s="31">
         <v>1300</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>18001</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B57" s="31">
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="26">
         <v>18002</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B58" s="31">
         <v>1400</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31">
+    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>19012</v>
+      </c>
+      <c r="B59" s="31">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>19020</v>
+      </c>
+      <c r="B60" s="31">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="32">
         <v>19011</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B61" s="31">
         <v>1500</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>19012</v>
-      </c>
-      <c r="B51" s="31">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>19020</v>
-      </c>
-      <c r="B52" s="31">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31">
+    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
         <v>20000</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B62" s="31">
         <v>1600</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
         <v>21001</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B63" s="31">
         <v>1700</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
         <v>21002</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B64" s="31">
         <v>1700</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
         <v>22000</v>
       </c>
-      <c r="B56" s="31">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
+      <c r="B65" s="31">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <v>23020</v>
+      </c>
+      <c r="B66" s="31">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="32">
         <v>23010</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B67" s="31">
         <v>1991</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>23020</v>
-      </c>
-      <c r="B58" s="31">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
         <v>23030</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B68" s="31">
         <v>1992</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31">
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="32">
         <v>23400</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B69" s="31">
         <v>1992</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31">
+    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="32">
         <v>24010</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B70" s="31">
         <v>2092</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31">
+    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="32">
+        <v>24090</v>
+      </c>
+      <c r="B71" s="31">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="32">
+        <v>24030</v>
+      </c>
+      <c r="B72" s="31">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="32">
         <v>24020</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B73" s="31">
         <v>2100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31">
-        <v>24030</v>
-      </c>
-      <c r="B63" s="31">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31">
-        <v>24090</v>
-      </c>
-      <c r="B64" s="31">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
         <v>25010</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B74" s="31">
         <v>2200</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
         <v>25020</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B75" s="31">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
         <v>26010</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B76" s="31">
         <v>2300</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="30">
         <v>26091</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B77" s="31">
         <v>2300</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="30">
         <v>26092</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B78" s="31">
         <v>2300</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="31">
+    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="32">
         <v>27001</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B79" s="31">
         <v>2491</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31">
+    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="32">
         <v>27002</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B80" s="31">
         <v>2492</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31">
+    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="32">
         <v>27003</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B81" s="31">
         <v>2492</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31">
+    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="30">
+        <v>28002</v>
+      </c>
+      <c r="B82" s="31">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="32">
         <v>28001</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B83" s="31">
         <v>2500</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>28002</v>
-      </c>
-      <c r="B74" s="31">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>29001</v>
-      </c>
-      <c r="B75" s="31">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>29002</v>
-      </c>
-      <c r="B76" s="31">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31">
-        <v>30000</v>
-      </c>
-      <c r="B77" s="31">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>31001</v>
-      </c>
-      <c r="B78" s="31">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>31002</v>
-      </c>
-      <c r="B79" s="31">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>32000</v>
-      </c>
-      <c r="B80" s="31">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31">
-        <v>33001</v>
-      </c>
-      <c r="B81" s="31">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31">
-        <v>33002</v>
-      </c>
-      <c r="B82" s="31">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="30">
         <v>33003</v>
-      </c>
-      <c r="B83" s="31">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>33004</v>
       </c>
       <c r="B84" s="31">
         <v>2600</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>33005</v>
+      <c r="A85" s="30">
+        <v>33004</v>
       </c>
       <c r="B85" s="31">
         <v>2600</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="A86" s="30">
+        <v>33005</v>
+      </c>
+      <c r="B86" s="31">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
+        <v>72020</v>
+      </c>
+      <c r="B87" s="31">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="30">
+        <v>29001</v>
+      </c>
+      <c r="B88" s="31">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="30">
+        <v>29002</v>
+      </c>
+      <c r="B89" s="31">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="30">
+        <v>31001</v>
+      </c>
+      <c r="B90" s="31">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="30">
+        <v>31002</v>
+      </c>
+      <c r="B91" s="31">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="30">
+        <v>32000</v>
+      </c>
+      <c r="B92" s="31">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="32">
+        <v>30000</v>
+      </c>
+      <c r="B93" s="31">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="32">
+        <v>33001</v>
+      </c>
+      <c r="B94" s="31">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="32">
+        <v>33002</v>
+      </c>
+      <c r="B95" s="31">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="30">
         <v>34001</v>
       </c>
-      <c r="B86" s="31">
+      <c r="B96" s="31">
         <v>2991</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="30">
         <v>34002</v>
       </c>
-      <c r="B87" s="31">
+      <c r="B97" s="31">
         <v>2992</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="30">
         <v>34003</v>
       </c>
-      <c r="B88" s="31">
+      <c r="B98" s="31">
         <v>2992</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="30">
         <v>35010</v>
       </c>
-      <c r="B89" s="31">
+      <c r="B99" s="31">
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="30">
         <v>35020</v>
       </c>
-      <c r="B90" s="31">
+      <c r="B100" s="31">
         <v>3000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="30">
         <v>35030</v>
       </c>
-      <c r="B91" s="31">
+      <c r="B101" s="31">
         <v>3000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="30">
         <v>35090</v>
       </c>
-      <c r="B92" s="31">
+      <c r="B102" s="31">
         <v>3000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="30">
         <v>36010</v>
       </c>
-      <c r="B93" s="31">
+      <c r="B103" s="31">
         <v>3180</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="30">
         <v>36090</v>
       </c>
-      <c r="B94" s="31">
+      <c r="B104" s="31">
         <v>3180</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="31">
-        <v>37000</v>
-      </c>
-      <c r="B95" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B96" s="31">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>11000</v>
-      </c>
-      <c r="B97" s="31">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>12000</v>
-      </c>
-      <c r="B98" s="31">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>13001</v>
-      </c>
-      <c r="B99" s="31">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>13002</v>
-      </c>
-      <c r="B100" s="31">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>14001</v>
-      </c>
-      <c r="B101" s="31">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>14002</v>
-      </c>
-      <c r="B102" s="31">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>14003</v>
-      </c>
-      <c r="B103" s="31">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>14004</v>
-      </c>
-      <c r="B104" s="31">
-        <v>792</v>
-      </c>
-    </row>
     <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31">
+      <c r="A105" s="30">
+        <v>50020</v>
+      </c>
+      <c r="B105" s="31">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="30">
+        <v>53111</v>
+      </c>
+      <c r="B106" s="31">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="30">
+        <v>53112</v>
+      </c>
+      <c r="B107" s="31">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="30">
+        <v>53113</v>
+      </c>
+      <c r="B108" s="31">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="30">
+        <v>40020</v>
+      </c>
+      <c r="B109" s="31">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="32">
         <v>40010</v>
       </c>
-      <c r="B105" s="31">
+      <c r="B110" s="31">
         <v>3500</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>40020</v>
-      </c>
-      <c r="B106" s="31">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="30">
         <v>41000</v>
       </c>
-      <c r="B107" s="31">
+      <c r="B111" s="31">
         <v>3680</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="31">
+    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="32">
         <v>45999</v>
       </c>
-      <c r="B108" s="31">
+      <c r="B112" s="31">
         <v>4180</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>45005</v>
-      </c>
-      <c r="B109" s="31">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="30">
         <v>50010</v>
-      </c>
-      <c r="B110" s="31">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>50020</v>
-      </c>
-      <c r="B111" s="31">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>50030</v>
-      </c>
-      <c r="B112" s="31">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>50040</v>
       </c>
       <c r="B113" s="31">
         <v>4500</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114" s="30">
+        <v>50030</v>
+      </c>
+      <c r="B114" s="31">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="30">
+        <v>50040</v>
+      </c>
+      <c r="B115" s="31">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="30">
         <v>50050</v>
-      </c>
-      <c r="B114" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>53010</v>
-      </c>
-      <c r="B115" s="31">
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>53020</v>
       </c>
       <c r="B116" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>53030</v>
+      <c r="A117" s="30">
+        <v>53010</v>
       </c>
       <c r="B117" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>53041</v>
+      <c r="A118" s="30">
+        <v>53020</v>
       </c>
       <c r="B118" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>53042</v>
+      <c r="A119" s="30">
+        <v>53030</v>
       </c>
       <c r="B119" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>53050</v>
+      <c r="A120" s="30">
+        <v>53041</v>
       </c>
       <c r="B120" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>53061</v>
+      <c r="A121" s="30">
+        <v>53042</v>
       </c>
       <c r="B121" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>53062</v>
+      <c r="A122" s="30">
+        <v>53050</v>
       </c>
       <c r="B122" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>53063</v>
+      <c r="A123" s="30">
+        <v>53061</v>
       </c>
       <c r="B123" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>53064</v>
+      <c r="A124" s="30">
+        <v>53062</v>
       </c>
       <c r="B124" s="31">
-        <v>4680</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>53065</v>
+      <c r="A125" s="30">
+        <v>53063</v>
       </c>
       <c r="B125" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>53066</v>
+      <c r="A126" s="30">
+        <v>53064</v>
       </c>
       <c r="B126" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>53067</v>
+      <c r="A127" s="30">
+        <v>53065</v>
       </c>
       <c r="B127" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>53068</v>
+      <c r="A128" s="30">
+        <v>53066</v>
       </c>
       <c r="B128" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>53070</v>
+      <c r="A129" s="30">
+        <v>53067</v>
       </c>
       <c r="B129" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>53080</v>
+      <c r="A130" s="30">
+        <v>53068</v>
       </c>
       <c r="B130" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>53090</v>
+      <c r="A131" s="30">
+        <v>53070</v>
       </c>
       <c r="B131" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>53101</v>
+      <c r="A132" s="30">
+        <v>53080</v>
       </c>
       <c r="B132" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>53102</v>
+      <c r="A133" s="30">
+        <v>53090</v>
       </c>
       <c r="B133" s="31">
         <v>4680</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>53111</v>
+      <c r="A134" s="30">
+        <v>53101</v>
       </c>
       <c r="B134" s="31">
-        <v>3300</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>53112</v>
+      <c r="A135" s="30">
+        <v>53102</v>
       </c>
       <c r="B135" s="31">
-        <v>3300</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>53113</v>
+      <c r="A136" s="30">
+        <v>60010</v>
       </c>
       <c r="B136" s="31">
-        <v>3300</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>55010</v>
+      <c r="A137" s="30">
+        <v>60020</v>
       </c>
       <c r="B137" s="31">
-        <v>5500</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>55020</v>
+      <c r="A138" s="30">
+        <v>60031</v>
       </c>
       <c r="B138" s="31">
-        <v>5600</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>55030</v>
+      <c r="A139" s="30">
+        <v>60032</v>
       </c>
       <c r="B139" s="31">
-        <v>5600</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>60010</v>
+      <c r="A140" s="30">
+        <v>60040</v>
       </c>
       <c r="B140" s="31">
         <v>4900</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>60020</v>
+      <c r="A141" s="30">
+        <v>60091</v>
       </c>
       <c r="B141" s="31">
         <v>4900</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>60031</v>
+      <c r="A142" s="30">
+        <v>60092</v>
       </c>
       <c r="B142" s="31">
-        <v>4900</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>60032</v>
+      <c r="A143" s="30">
+        <v>61000</v>
       </c>
       <c r="B143" s="31">
-        <v>4900</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>60040</v>
+      <c r="A144" s="30">
+        <v>62000</v>
       </c>
       <c r="B144" s="31">
-        <v>4900</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>60091</v>
+      <c r="A145" s="30">
+        <v>63010</v>
       </c>
       <c r="B145" s="31">
-        <v>4900</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>60092</v>
+      <c r="A146" s="30">
+        <v>63021</v>
       </c>
       <c r="B146" s="31">
-        <v>5000</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>61000</v>
+      <c r="A147" s="30">
+        <v>63022</v>
       </c>
       <c r="B147" s="31">
-        <v>5000</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>62000</v>
+      <c r="A148" s="30">
+        <v>63030</v>
       </c>
       <c r="B148" s="31">
-        <v>5100</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>63010</v>
+      <c r="A149" s="30">
+        <v>64010</v>
       </c>
       <c r="B149" s="31">
         <v>5280</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>63021</v>
+      <c r="A150" s="30">
+        <v>55010</v>
       </c>
       <c r="B150" s="31">
-        <v>5280</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>63022</v>
+      <c r="A151" s="30">
+        <v>55020</v>
       </c>
       <c r="B151" s="31">
-        <v>5280</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>63030</v>
+      <c r="A152" s="30">
+        <v>55030</v>
       </c>
       <c r="B152" s="31">
-        <v>5280</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>64010</v>
+      <c r="A153" s="30">
+        <v>92011</v>
       </c>
       <c r="B153" s="31">
-        <v>5280</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+      <c r="A154" s="30">
+        <v>92012</v>
+      </c>
+      <c r="B154" s="31">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="30">
+        <v>92013</v>
+      </c>
+      <c r="B155" s="31">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="30">
+        <v>92014</v>
+      </c>
+      <c r="B156" s="31">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="30">
         <v>64020</v>
       </c>
-      <c r="B154" s="31">
+      <c r="B157" s="31">
         <v>6100</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>75011</v>
-      </c>
-      <c r="B155" s="31">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>75012</v>
-      </c>
-      <c r="B156" s="31">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>75013</v>
-      </c>
-      <c r="B157" s="31">
-        <v>8400</v>
-      </c>
-    </row>
     <row r="158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>75014</v>
+      <c r="A158" s="30">
+        <v>72010</v>
       </c>
       <c r="B158" s="31">
-        <v>8400</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>75015</v>
+      <c r="A159" s="30">
+        <v>92020</v>
       </c>
       <c r="B159" s="31">
-        <v>8400</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>75016</v>
+      <c r="A160" s="30">
+        <v>67010</v>
       </c>
       <c r="B160" s="31">
-        <v>8400</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>75017</v>
+      <c r="A161" s="30">
+        <v>67020</v>
       </c>
       <c r="B161" s="31">
-        <v>8400</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>75020</v>
+      <c r="A162" s="32">
+        <v>65000</v>
       </c>
       <c r="B162" s="31">
-        <v>8400</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>80011</v>
+      <c r="A163" s="32">
+        <v>66000</v>
       </c>
       <c r="B163" s="31">
-        <v>8591</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>80012</v>
+      <c r="A164" s="32">
+        <v>70001</v>
       </c>
       <c r="B164" s="31">
-        <v>8592</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>80090</v>
+      <c r="A165" s="30">
+        <v>74011</v>
       </c>
       <c r="B165" s="31">
-        <v>8591</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>85011</v>
+      <c r="A166" s="30">
+        <v>74012</v>
       </c>
       <c r="B166" s="31">
-        <v>8691</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>85012</v>
+      <c r="A167" s="30">
+        <v>74021</v>
       </c>
       <c r="B167" s="31">
-        <v>8692</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>85013</v>
+      <c r="A168" s="30">
+        <v>74022</v>
       </c>
       <c r="B168" s="31">
-        <v>8691</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>85020</v>
+      <c r="A169" s="32">
+        <v>73000</v>
       </c>
       <c r="B169" s="31">
-        <v>7380</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>85030</v>
+      <c r="A170" s="30">
+        <v>74030</v>
       </c>
       <c r="B170" s="31">
         <v>7380</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="31">
+      <c r="A171" s="30">
+        <v>85020</v>
+      </c>
+      <c r="B171" s="31">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="30">
+        <v>85030</v>
+      </c>
+      <c r="B172" s="31">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="30">
+        <v>45005</v>
+      </c>
+      <c r="B173" s="31">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="30">
+        <v>71010</v>
+      </c>
+      <c r="B174" s="31">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="30">
+        <v>71020</v>
+      </c>
+      <c r="B175" s="31">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="30">
+        <v>71030</v>
+      </c>
+      <c r="B176" s="31">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="30">
+        <v>70002</v>
+      </c>
+      <c r="B177" s="31">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="30">
+        <v>74040</v>
+      </c>
+      <c r="B178" s="31">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="30">
+        <v>74060</v>
+      </c>
+      <c r="B179" s="31">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="30">
+        <v>74090</v>
+      </c>
+      <c r="B180" s="31">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="32">
         <v>90000</v>
       </c>
-      <c r="B171" s="31">
+      <c r="B181" s="31">
         <v>7880</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+    <row r="182" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="30">
+        <v>74050</v>
+      </c>
+      <c r="B182" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="30">
+        <v>75011</v>
+      </c>
+      <c r="B183" s="31">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="30">
+        <v>75012</v>
+      </c>
+      <c r="B184" s="31">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="30">
+        <v>75013</v>
+      </c>
+      <c r="B185" s="31">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="30">
+        <v>75014</v>
+      </c>
+      <c r="B186" s="31">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="30">
+        <v>75015</v>
+      </c>
+      <c r="B187" s="31">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="30">
+        <v>75016</v>
+      </c>
+      <c r="B188" s="31">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="30">
+        <v>75017</v>
+      </c>
+      <c r="B189" s="31">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="30">
+        <v>75020</v>
+      </c>
+      <c r="B190" s="31">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="30">
+        <v>80011</v>
+      </c>
+      <c r="B191" s="31">
+        <v>8591</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="30">
+        <v>80090</v>
+      </c>
+      <c r="B192" s="31">
+        <v>8591</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="30">
+        <v>80012</v>
+      </c>
+      <c r="B193" s="31">
+        <v>8592</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="30">
+        <v>85011</v>
+      </c>
+      <c r="B194" s="31">
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="30">
+        <v>85013</v>
+      </c>
+      <c r="B195" s="31">
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="30">
+        <v>85012</v>
+      </c>
+      <c r="B196" s="31">
+        <v>8692</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="30">
+        <v>92015</v>
+      </c>
+      <c r="B197" s="31">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="30">
+        <v>92030</v>
+      </c>
+      <c r="B198" s="31">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="30">
+        <v>92040</v>
+      </c>
+      <c r="B199" s="31">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="30">
+        <v>93091</v>
+      </c>
+      <c r="B200" s="31">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="30">
         <v>91010</v>
       </c>
-      <c r="B172" s="31">
+      <c r="B201" s="31">
         <v>9480</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+    <row r="202" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="30">
         <v>91020</v>
       </c>
-      <c r="B173" s="31">
+      <c r="B202" s="31">
         <v>9480</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+    <row r="203" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="30">
         <v>91091</v>
       </c>
-      <c r="B174" s="31">
+      <c r="B203" s="31">
         <v>9480</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+    <row r="204" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="30">
         <v>91092</v>
       </c>
-      <c r="B175" s="31">
+      <c r="B204" s="31">
         <v>9480</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>92011</v>
-      </c>
-      <c r="B176" s="31">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>92012</v>
-      </c>
-      <c r="B177" s="31">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>92013</v>
-      </c>
-      <c r="B178" s="31">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>92014</v>
-      </c>
-      <c r="B179" s="31">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>92015</v>
-      </c>
-      <c r="B180" s="31">
-        <v>9080</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>92020</v>
-      </c>
-      <c r="B181" s="31">
-        <v>6280</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>92030</v>
-      </c>
-      <c r="B182" s="31">
-        <v>9080</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>92040</v>
-      </c>
-      <c r="B183" s="31">
-        <v>9080</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+    <row r="205" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="30">
         <v>93010</v>
       </c>
-      <c r="B184" s="31">
+      <c r="B205" s="31">
         <v>9480</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+    <row r="206" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="30">
         <v>93020</v>
       </c>
-      <c r="B185" s="31">
+      <c r="B206" s="31">
         <v>9480</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+    <row r="207" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="30">
         <v>93030</v>
       </c>
-      <c r="B186" s="31">
+      <c r="B207" s="31">
         <v>9480</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>93091</v>
-      </c>
-      <c r="B187" s="31">
-        <v>9080</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+    <row r="208" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="30">
         <v>93092</v>
       </c>
-      <c r="B188" s="31">
+      <c r="B208" s="31">
         <v>9480</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="31">
+    <row r="209" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="32">
         <v>95000</v>
       </c>
-      <c r="B189" s="31">
+      <c r="B209" s="31">
         <v>9700</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="31">
-        <v>65000</v>
-      </c>
-      <c r="B190" s="31">
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="31">
-        <v>66000</v>
-      </c>
-      <c r="B191" s="31">
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>67010</v>
-      </c>
-      <c r="B192" s="31">
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>67020</v>
-      </c>
-      <c r="B193" s="31">
-        <v>6480</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="31">
-        <v>70001</v>
-      </c>
-      <c r="B194" s="31">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>70002</v>
-      </c>
-      <c r="B195" s="31">
-        <v>7880</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>71010</v>
-      </c>
-      <c r="B196" s="31">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>71020</v>
-      </c>
-      <c r="B197" s="31">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>71030</v>
-      </c>
-      <c r="B198" s="31">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>72010</v>
-      </c>
-      <c r="B199" s="31">
-        <v>6280</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>72020</v>
-      </c>
-      <c r="B200" s="31">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="31">
-        <v>73000</v>
-      </c>
-      <c r="B201" s="31">
-        <v>7180</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>74011</v>
-      </c>
-      <c r="B202" s="31">
-        <v>6980</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>74012</v>
-      </c>
-      <c r="B203" s="31">
-        <v>6980</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>74021</v>
-      </c>
-      <c r="B204" s="31">
-        <v>7180</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>74022</v>
-      </c>
-      <c r="B205" s="31">
-        <v>7180</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>74030</v>
-      </c>
-      <c r="B206" s="31">
+    <row r="210" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="32">
+        <v>37000</v>
+      </c>
+      <c r="B210" s="31">
         <v>7380</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>74040</v>
-      </c>
-      <c r="B207" s="31">
-        <v>7880</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>74050</v>
-      </c>
-      <c r="B208" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>74060</v>
-      </c>
-      <c r="B209" s="31">
-        <v>7880</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>74090</v>
-      </c>
-      <c r="B210" s="31">
-        <v>7880</v>
-      </c>
-    </row>
     <row r="211" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="31">
+      <c r="A211" s="32">
         <v>99000</v>
       </c>
+      <c r="B211" s="31">
+        <v>7380</v>
+      </c>
     </row>
     <row r="212" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="31">
+      <c r="A212" s="32">
         <v>99888</v>
+      </c>
+      <c r="B212" s="31">
+        <v>7380</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4909,6 +4931,7 @@
     <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:B212" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4922,7 +4945,7 @@
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="95.109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="120.5546875" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" style="25" customWidth="1"/>
     <col min="4" max="4" width="65.21875" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="254" width="9.109375" style="25"/>
@@ -5393,24 +5416,24 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
-        <v>1201</v>
+        <v>1401</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5421,10 +5444,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -5435,10 +5458,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5449,10 +5472,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -5463,10 +5486,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -5477,10 +5500,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -5491,10 +5514,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -5505,10 +5528,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -5519,10 +5542,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
-        <v>1300</v>
+        <v>1209</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -5533,16 +5556,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
-        <v>1401</v>
+        <v>1300</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,693 +5653,682 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
-        <v>15010</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" t="s">
-        <v>74</v>
+      <c r="A40" s="26">
+        <v>10000</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="25" t="str">
+        <f>VLOOKUP(B40,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Extração de carvão mineral e de minerais não-metálicos</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
-        <v>15021</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>219</v>
+        <v>11000</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
-        <v>15022</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>220</v>
+        <v>14004</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>714</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>715</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
-        <v>15030</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>221</v>
+        <v>12000</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
-        <v>15041</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>222</v>
+        <v>13001</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>289</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
-        <v>15042</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="25" t="str">
-        <f>VLOOKUP(B45,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>1093</v>
-      </c>
-      <c r="D45" s="25" t="str">
-        <f>VLOOKUP(B45,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Outros produtos alimentares</v>
+        <v>13002</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
-        <v>15043</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="C46" s="25" t="str">
-        <f>VLOOKUP(B46,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>1093</v>
-      </c>
-      <c r="D46" s="25" t="str">
-        <f>VLOOKUP(B46,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Outros produtos alimentares</v>
+        <v>14001</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
-        <v>15055</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="25" t="str">
-        <f>VLOOKUP(B47,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>1100</v>
-      </c>
-      <c r="D47" s="25" t="str">
-        <f>VLOOKUP(B47,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Fabricação de bebidas</v>
+        <v>14002</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
-        <v>16000</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>12</v>
+        <v>14003</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>223</v>
+      <c r="A49" s="28">
+        <v>15010</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>225</v>
+      <c r="A50" s="26">
+        <v>15030</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
-        <v>18001</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>227</v>
+        <v>15041</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
+        <v>15021</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
+        <v>15022</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="26">
+        <v>15042</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="25" t="str">
+        <f>VLOOKUP(B54,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Outros produtos alimentares</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
+        <v>15043</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="25" t="str">
+        <f>VLOOKUP(B55,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Outros produtos alimentares</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="26">
+        <v>15055</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="25" t="str">
+        <f>VLOOKUP(B56,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Fabricação de bebidas</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
+        <v>16000</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="26">
+        <v>18001</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
         <v>18002</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B61" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C61" t="s">
         <v>80</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D61" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" s="25" t="str">
-        <f>VLOOKUP(B53,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>1500</v>
-      </c>
-      <c r="D53" s="25" t="str">
-        <f>VLOOKUP(B53,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Fabricação de calçados e de artefatos de couro</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="30">
-        <v>19012</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="30">
-        <v>19020</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="30">
-        <v>21001</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="30">
-        <v>21002</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30">
-        <v>22000</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="25" t="str">
-        <f>VLOOKUP(B60,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>1991</v>
-      </c>
-      <c r="D60" s="25" t="str">
-        <f>VLOOKUP(B60,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Refino de petróleo e coquerias</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="30">
-        <v>23020</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="C61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
-        <v>23030</v>
+        <v>19012</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" t="s">
-        <v>16</v>
+        <v>230</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
-        <v>240</v>
+      <c r="A63" s="30">
+        <v>19020</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" t="s">
-        <v>16</v>
+        <v>231</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" t="s">
-        <v>92</v>
+        <v>229</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="25" t="str">
+        <f>VLOOKUP(B64,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Fabricação de calçados e de artefatos de couro</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
-        <v>245</v>
+      <c r="A66" s="30">
+        <v>21001</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
-        <v>247</v>
+      <c r="A67" s="30">
+        <v>21002</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
-        <v>25010</v>
+        <v>22000</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" s="25" t="str">
-        <f>VLOOKUP(B68,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>2200</v>
-      </c>
-      <c r="D68" s="25" t="str">
-        <f>VLOOKUP(B68,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Fabricação de produtos de borracha e de material plástico</v>
+        <v>236</v>
+      </c>
+      <c r="C68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
-        <v>25020</v>
+        <v>23020</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
-        <v>26010</v>
+      <c r="A70" s="30" t="s">
+        <v>237</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C70" s="25" t="str">
-        <f>VLOOKUP(B70,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>2300</v>
+        <v>185</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="D70" s="25" t="str">
         <f>VLOOKUP(B70,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Fabricação de produtos de minerais não-metálicos</v>
+        <v>Refino de petróleo e coquerias</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
-        <v>26091</v>
+        <v>23030</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="C71" s="25" t="str">
-        <f>VLOOKUP(B71,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>2300</v>
-      </c>
-      <c r="D71" s="25" t="str">
-        <f>VLOOKUP(B71,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Fabricação de produtos de minerais não-metálicos</v>
+        <v>239</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="30">
-        <v>26092</v>
+      <c r="A72" s="30" t="s">
+        <v>240</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="25" t="str">
-        <f>VLOOKUP(B73,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>2491</v>
-      </c>
-      <c r="D73" s="25" t="str">
-        <f>VLOOKUP(B73,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</v>
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="25" t="str">
-        <f>VLOOKUP(B74,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>2492</v>
-      </c>
-      <c r="D74" s="25" t="str">
-        <f>VLOOKUP(B74,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Metalurgia de metais não-ferosos e a fundição de metais</v>
+        <v>248</v>
+      </c>
+      <c r="C74" t="s">
+        <v>716</v>
+      </c>
+      <c r="D74" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="C75" s="25" t="str">
-        <f>VLOOKUP(B75,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>2492</v>
-      </c>
-      <c r="D75" s="25" t="str">
-        <f>VLOOKUP(B75,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Metalurgia de metais não-ferosos e a fundição de metais</v>
+        <v>246</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>105</v>
+        <v>244</v>
+      </c>
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
-        <v>28002</v>
+        <v>25010</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="25" t="str">
-        <f>VLOOKUP(B77,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>2500</v>
+        <v>249</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="D77" s="25" t="str">
         <f>VLOOKUP(B77,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Fabricação de produtos de metal, exceto máquinas e equipamentos</v>
+        <v>Fabricação de produtos de borracha e de material plástico</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
-        <v>29001</v>
+        <v>25020</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
-        <v>29002</v>
+        <v>26010</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" t="s">
-        <v>111</v>
+        <v>251</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="25" t="str">
+        <f>VLOOKUP(B79,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Fabricação de produtos de minerais não-metálicos</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
-        <v>266</v>
+      <c r="A80" s="30">
+        <v>26091</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="C80" t="s">
-        <v>110</v>
-      </c>
-      <c r="D80" t="s">
-        <v>111</v>
+        <v>252</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="25" t="str">
+        <f>VLOOKUP(B80,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Fabricação de produtos de minerais não-metálicos</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="30">
-        <v>31001</v>
+        <v>26092</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="30">
-        <v>31002</v>
+      <c r="A82" s="30" t="s">
+        <v>254</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C82" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" t="s">
-        <v>111</v>
+        <v>255</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="25" t="str">
+        <f>VLOOKUP(B82,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="30">
-        <v>32000</v>
+      <c r="A83" s="30" t="s">
+        <v>256</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="C83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" t="s">
-        <v>111</v>
+        <v>257</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="25" t="str">
+        <f>VLOOKUP(B83,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Metalurgia de metais não-ferosos e a fundição de metais</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="C84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" t="s">
-        <v>111</v>
+        <v>259</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="25" t="str">
+        <f>VLOOKUP(B84,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Metalurgia de metais não-ferosos e a fundição de metais</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
-        <v>273</v>
+      <c r="A85" s="30">
+        <v>28002</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" t="s">
-        <v>111</v>
+        <v>262</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="25" t="str">
+        <f>VLOOKUP(B85,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Fabricação de produtos de metal, exceto máquinas e equipamentos</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="30">
-        <v>33003</v>
+      <c r="A86" s="30" t="s">
+        <v>260</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="C86" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" t="s">
-        <v>107</v>
+        <v>261</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="30">
-        <v>33004</v>
+        <v>33003</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C87" t="s">
         <v>106</v>
@@ -6327,10 +6339,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="30">
-        <v>33005</v>
+        <v>33004</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s">
         <v>106</v>
@@ -6341,444 +6353,434 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="30">
-        <v>34001</v>
+        <v>33005</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="C89" s="25" t="str">
-        <f>VLOOKUP(B89,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>2991</v>
-      </c>
-      <c r="D89" s="25" t="str">
-        <f>VLOOKUP(B89,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Fabricação de automóveis, caminhões e ônibus, exceto peças</v>
+        <v>187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="30">
-        <v>34002</v>
-      </c>
-      <c r="B90" s="29" t="s">
-        <v>278</v>
+        <v>72020</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>386</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="30">
-        <v>34003</v>
+        <v>29001</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="30">
-        <v>35010</v>
+        <v>29002</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="30">
-        <v>35020</v>
+        <v>31001</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="30">
-        <v>35030</v>
+        <v>31002</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="30">
-        <v>35090</v>
+        <v>32000</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="30">
-        <v>36010</v>
+      <c r="A96" s="30" t="s">
+        <v>266</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="30">
-        <v>36090</v>
+      <c r="A97" s="30" t="s">
+        <v>271</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="C98" s="25" t="e">
-        <f>VLOOKUP(B98,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D98" s="25" t="e">
-        <f>VLOOKUP(B98,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>#N/A</v>
+        <v>274</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="26">
-        <v>10000</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="25" t="str">
-        <f>VLOOKUP(B99,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>0580</v>
+      <c r="A99" s="30">
+        <v>34001</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="D99" s="25" t="str">
         <f>VLOOKUP(B99,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Extração de carvão mineral e de minerais não-metálicos</v>
+        <v>Fabricação de automóveis, caminhões e ônibus, exceto peças</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="26">
-        <v>11000</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>288</v>
+      <c r="A100" s="30">
+        <v>34002</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="26">
-        <v>12000</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>183</v>
+      <c r="A101" s="30">
+        <v>34003</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>279</v>
       </c>
       <c r="C101" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="26">
-        <v>13001</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>289</v>
+      <c r="A102" s="30">
+        <v>35010</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>280</v>
       </c>
       <c r="C102" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="26">
-        <v>13002</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>290</v>
+      <c r="A103" s="30">
+        <v>35020</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>281</v>
       </c>
       <c r="C103" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="26">
-        <v>14001</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>291</v>
+      <c r="A104" s="30">
+        <v>35030</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>282</v>
       </c>
       <c r="C104" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="26">
-        <v>14002</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>292</v>
+      <c r="A105" s="30">
+        <v>35090</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="C105" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="26">
-        <v>14003</v>
-      </c>
-      <c r="B106" s="25" t="s">
-        <v>293</v>
+      <c r="A106" s="30">
+        <v>36010</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="26">
-        <v>14004</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>294</v>
+      <c r="A107" s="30">
+        <v>36090</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>285</v>
       </c>
       <c r="C107" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>296</v>
+      <c r="A108" s="30">
+        <v>50020</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>302</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
-        <v>40020</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>297</v>
+        <v>53111</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>324</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="30">
-        <v>41000</v>
-      </c>
-      <c r="B110" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" s="25" t="str">
-        <f>VLOOKUP(B110,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>3680</v>
-      </c>
-      <c r="D110" s="25" t="str">
-        <f>VLOOKUP(B110,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Água, esgoto e gestão de resíduos</v>
+        <v>53112</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>299</v>
+      <c r="A111" s="30">
+        <v>53113</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>326</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="30">
-        <v>45005</v>
+        <v>40020</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C112" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="30">
-        <v>50010</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="C113" s="25" t="str">
-        <f>VLOOKUP(B113,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>4500</v>
-      </c>
-      <c r="D113" s="25" t="str">
-        <f>VLOOKUP(B113,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Comércio e reparação de veículos automotores e motocicletas</v>
+      <c r="A113" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="30">
-        <v>50020</v>
-      </c>
-      <c r="B114" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="C114" t="s">
-        <v>120</v>
-      </c>
-      <c r="D114" t="s">
-        <v>121</v>
+        <v>41000</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="25" t="str">
+        <f>VLOOKUP(B114,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Água, esgoto e gestão de resíduos</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="30">
-        <v>50030</v>
-      </c>
-      <c r="B115" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C115" s="25" t="str">
-        <f>VLOOKUP(B115,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>4500</v>
-      </c>
-      <c r="D115" s="25" t="str">
-        <f>VLOOKUP(B115,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Comércio e reparação de veículos automotores e motocicletas</v>
+      <c r="A115" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="30">
-        <v>50040</v>
+        <v>50010</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C116" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D116" t="s">
-        <v>128</v>
+      <c r="D116" s="25" t="str">
+        <f>VLOOKUP(B116,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Comércio e reparação de veículos automotores e motocicletas</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="30">
-        <v>50050</v>
+        <v>50030</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="C117" s="25" t="e">
-        <f>VLOOKUP(B117,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D117" s="25" t="e">
+        <v>33</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="25" t="str">
         <f>VLOOKUP(B117,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>#N/A</v>
+        <v>Comércio e reparação de veículos automotores e motocicletas</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="30">
-        <v>53010</v>
+        <v>50040</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C118" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="30">
-        <v>53020</v>
+        <v>50050</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C119" t="s">
         <v>129</v>
@@ -6789,26 +6791,24 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="30">
-        <v>53030</v>
+        <v>53010</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="C120" s="25" t="str">
-        <f>VLOOKUP(B120,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>4680</v>
-      </c>
-      <c r="D120" s="25" t="str">
-        <f>VLOOKUP(B120,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Comércio por atacado e a varejo, exceto veículos automotores</v>
+        <v>305</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="30">
-        <v>53041</v>
+        <v>53020</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C121" t="s">
         <v>129</v>
@@ -6819,24 +6819,25 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="30">
-        <v>53042</v>
+        <v>53030</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="C122" t="s">
+        <v>307</v>
+      </c>
+      <c r="C122" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D122" t="s">
-        <v>130</v>
+      <c r="D122" s="25" t="str">
+        <f>VLOOKUP(B122,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Comércio por atacado e a varejo, exceto veículos automotores</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="30">
-        <v>53050</v>
+        <v>53041</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C123" t="s">
         <v>129</v>
@@ -6847,10 +6848,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="30">
-        <v>53061</v>
+        <v>53042</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C124" t="s">
         <v>129</v>
@@ -6861,10 +6862,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="30">
-        <v>53062</v>
+        <v>53050</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C125" t="s">
         <v>129</v>
@@ -6875,10 +6876,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="30">
-        <v>53063</v>
+        <v>53061</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C126" t="s">
         <v>129</v>
@@ -6889,24 +6890,24 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="30">
-        <v>53064</v>
+        <v>53062</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="30">
-        <v>53065</v>
+        <v>53063</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
@@ -6917,10 +6918,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="30">
-        <v>53066</v>
+        <v>53064</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C129" t="s">
         <v>129</v>
@@ -6931,10 +6932,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
-        <v>53067</v>
+        <v>53065</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C130" t="s">
         <v>129</v>
@@ -6945,10 +6946,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="30">
-        <v>53068</v>
+        <v>53066</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C131" t="s">
         <v>129</v>
@@ -6959,10 +6960,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="30">
-        <v>53070</v>
+        <v>53067</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C132" t="s">
         <v>129</v>
@@ -6973,10 +6974,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="30">
-        <v>53080</v>
+        <v>53068</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C133" t="s">
         <v>129</v>
@@ -6987,10 +6988,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="30">
-        <v>53090</v>
+        <v>53070</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C134" t="s">
         <v>129</v>
@@ -7001,10 +7002,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="30">
-        <v>53101</v>
+        <v>53080</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C135" t="s">
         <v>129</v>
@@ -7015,10 +7016,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="30">
-        <v>53102</v>
+        <v>53090</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C136" t="s">
         <v>129</v>
@@ -7029,110 +7030,109 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="30">
-        <v>53111</v>
+        <v>53101</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C137" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D137" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="30">
-        <v>53112</v>
+        <v>53102</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D138" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="30">
-        <v>53113</v>
+        <v>60010</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C139" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D139" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="30">
-        <v>55010</v>
+        <v>60020</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C140" s="25" t="str">
-        <f>VLOOKUP(B140,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>5500</v>
-      </c>
-      <c r="D140" s="25" t="str">
-        <f>VLOOKUP(B140,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Alojamento</v>
+        <v>330</v>
+      </c>
+      <c r="C140" t="s">
+        <v>131</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
-        <v>55020</v>
+        <v>60031</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C141" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D141" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
-        <v>55030</v>
+        <v>60032</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C142" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D142" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="30">
-        <v>60010</v>
+        <v>60040</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="C143" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D143" t="s">
-        <v>21</v>
+      <c r="D143" s="25" t="str">
+        <f>VLOOKUP(B143,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Transporte terrestre</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="30">
-        <v>60020</v>
+        <v>60091</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C144" t="s">
         <v>131</v>
@@ -7143,1004 +7143,986 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="30">
-        <v>60031</v>
+        <v>60092</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="30">
-        <v>60032</v>
+        <v>61000</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="C146" t="s">
-        <v>131</v>
-      </c>
-      <c r="D146" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D146" s="25" t="str">
+        <f>VLOOKUP(B146,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Transporte aquaviário</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="30">
-        <v>60040</v>
+        <v>62000</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C147" s="25" t="str">
-        <f>VLOOKUP(B147,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>4900</v>
+        <v>23</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="D147" s="25" t="str">
         <f>VLOOKUP(B147,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Transporte terrestre</v>
+        <v>Transporte aéreo</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="30">
-        <v>60091</v>
+        <v>63010</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C148" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="30">
-        <v>60092</v>
+        <v>63021</v>
       </c>
       <c r="B149" s="27" t="s">
-        <v>3</v>
+        <v>336</v>
       </c>
       <c r="C149" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="30">
-        <v>61000</v>
+        <v>63022</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C150" s="25" t="str">
-        <f>VLOOKUP(B150,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>5000</v>
-      </c>
-      <c r="D150" s="25" t="str">
-        <f>VLOOKUP(B150,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Transporte aquaviário</v>
+        <v>337</v>
+      </c>
+      <c r="C150" t="s">
+        <v>134</v>
+      </c>
+      <c r="D150" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="30">
-        <v>62000</v>
+        <v>63030</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C151" s="25" t="str">
-        <f>VLOOKUP(B151,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>5100</v>
-      </c>
-      <c r="D151" s="25" t="str">
-        <f>VLOOKUP(B151,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Transporte aéreo</v>
+        <v>338</v>
+      </c>
+      <c r="C151" t="s">
+        <v>134</v>
+      </c>
+      <c r="D151" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="30">
-        <v>63010</v>
+        <v>64010</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="C152" t="s">
+        <v>339</v>
+      </c>
+      <c r="C152" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D152" t="s">
-        <v>135</v>
+      <c r="D152" s="25" t="str">
+        <f>VLOOKUP(B152,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Armazenamento, atividades auxiliares dos transportes e correio</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="30">
-        <v>63021</v>
+        <v>55010</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="C153" t="s">
-        <v>134</v>
-      </c>
-      <c r="D153" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="C153" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D153" s="25" t="str">
+        <f>VLOOKUP(B153,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Alojamento</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="30">
-        <v>63022</v>
+        <v>55020</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C154" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D154" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="30">
-        <v>63030</v>
+        <v>55030</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C155" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D155" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="30">
-        <v>64010</v>
+        <v>92011</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C156" s="25" t="str">
-        <f>VLOOKUP(B156,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>5280</v>
-      </c>
-      <c r="D156" s="25" t="str">
-        <f>VLOOKUP(B156,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Armazenamento, atividades auxiliares dos transportes e correio</v>
+        <v>360</v>
+      </c>
+      <c r="C156" t="s">
+        <v>141</v>
+      </c>
+      <c r="D156" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="30">
-        <v>64020</v>
+        <v>92012</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C157" s="25" t="str">
-        <f>VLOOKUP(B157,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>6100</v>
-      </c>
-      <c r="D157" s="25" t="str">
-        <f>VLOOKUP(B157,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Telecomunicações</v>
+        <v>361</v>
+      </c>
+      <c r="C157" t="s">
+        <v>141</v>
+      </c>
+      <c r="D157" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="30">
-        <v>75011</v>
+        <v>92013</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="C158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D158" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D158" s="25" t="str">
+        <f>VLOOKUP(B158,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="30">
-        <v>75012</v>
+        <v>92014</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="C159" t="s">
-        <v>160</v>
-      </c>
-      <c r="D159" t="s">
-        <v>28</v>
+        <v>362</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D159" s="25" t="str">
+        <f>VLOOKUP(B159,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="30">
-        <v>75013</v>
+        <v>64020</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="C160" t="s">
-        <v>160</v>
-      </c>
-      <c r="D160" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D160" s="25" t="str">
+        <f>VLOOKUP(B160,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Telecomunicações</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="30">
-        <v>75014</v>
+        <v>72010</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="C161" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="30">
-        <v>75015</v>
+        <v>92020</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="C162" s="25" t="str">
-        <f>VLOOKUP(B162,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>8400</v>
-      </c>
-      <c r="D162" s="25" t="str">
-        <f>VLOOKUP(B162,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Administração pública, defesa e seguridade social</v>
+        <v>364</v>
+      </c>
+      <c r="C162" t="s">
+        <v>144</v>
+      </c>
+      <c r="D162" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="30">
-        <v>75016</v>
+        <v>67010</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="C163" s="25" t="str">
-        <f>VLOOKUP(B163,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>8400</v>
-      </c>
-      <c r="D163" s="25" t="str">
-        <f>VLOOKUP(B163,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Administração pública, defesa e seguridade social</v>
+        <v>378</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="30">
-        <v>75017</v>
+        <v>67020</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="C164" s="25" t="str">
-        <f>VLOOKUP(B164,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>8400</v>
-      </c>
-      <c r="D164" s="25" t="str">
-        <f>VLOOKUP(B164,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Administração pública, defesa e seguridade social</v>
+        <v>379</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="30">
-        <v>75020</v>
+      <c r="A165" s="30" t="s">
+        <v>374</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="C165" t="s">
-        <v>160</v>
-      </c>
-      <c r="D165" t="s">
-        <v>28</v>
+        <v>375</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="30">
-        <v>80011</v>
+      <c r="A166" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="C166" t="s">
-        <v>161</v>
-      </c>
-      <c r="D166" t="s">
-        <v>0</v>
+        <v>377</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D166" s="25" t="str">
+        <f>VLOOKUP(B166,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Intermediação financeira, seguros e previdência complementar</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="30">
-        <v>80012</v>
+      <c r="A167" s="30" t="s">
+        <v>380</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="C167" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D167" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="30">
-        <v>80090</v>
+        <v>74011</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="C168" s="25" t="str">
-        <f>VLOOKUP(B168,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>8591</v>
-      </c>
-      <c r="D168" s="25" t="str">
-        <f>VLOOKUP(B168,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Educação pública</v>
+        <v>389</v>
+      </c>
+      <c r="C168" t="s">
+        <v>149</v>
+      </c>
+      <c r="D168" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="30">
-        <v>85011</v>
+        <v>74012</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>1</v>
+        <v>390</v>
       </c>
       <c r="C169" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D169" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="30">
-        <v>85012</v>
+        <v>74021</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="C170" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D170" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="30">
-        <v>85013</v>
+        <v>74022</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="C171" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D171" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="30">
-        <v>85020</v>
+      <c r="A172" s="30" t="s">
+        <v>387</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="C172" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D172" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="30">
-        <v>85030</v>
+        <v>74030</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="C173" t="s">
+        <v>393</v>
+      </c>
+      <c r="C173" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="25" t="str">
+        <f>VLOOKUP(B173,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Outras atividades profissionais, científicas e técnicas</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="30">
+        <v>85020</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="C174" t="s">
+        <v>153</v>
+      </c>
+      <c r="D174" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="B174" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="C174" t="s">
-        <v>157</v>
-      </c>
-      <c r="D174" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="30">
-        <v>91010</v>
+        <v>85030</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C175" s="25" t="str">
-        <f>VLOOKUP(B175,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>9480</v>
-      </c>
-      <c r="D175" s="25" t="str">
-        <f>VLOOKUP(B175,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Organizações associativas e outros serviços pessoais</v>
+        <v>354</v>
+      </c>
+      <c r="C175" t="s">
+        <v>153</v>
+      </c>
+      <c r="D175" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="30">
-        <v>91020</v>
-      </c>
-      <c r="B176" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="C176" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D176" s="25" t="s">
-        <v>170</v>
+        <v>45005</v>
+      </c>
+      <c r="B176" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C176" t="s">
+        <v>155</v>
+      </c>
+      <c r="D176" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="30">
-        <v>91091</v>
+        <v>71010</v>
       </c>
       <c r="B177" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="C177" s="25" t="str">
-        <f>VLOOKUP(B177,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>9480</v>
-      </c>
-      <c r="D177" s="25" t="str">
-        <f>VLOOKUP(B177,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Organizações associativas e outros serviços pessoais</v>
+        <v>382</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D177" s="25" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="30">
-        <v>91092</v>
+        <v>71020</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="30">
-        <v>92011</v>
+        <v>71030</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="C179" t="s">
-        <v>141</v>
-      </c>
-      <c r="D179" t="s">
-        <v>142</v>
+        <v>384</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D179" s="25" t="str">
+        <f>VLOOKUP(B179,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="30">
-        <v>92012</v>
+        <v>70002</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="C180" t="s">
-        <v>141</v>
-      </c>
-      <c r="D180" t="s">
-        <v>142</v>
+        <v>43</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D180" s="25" t="str">
+        <f>VLOOKUP(B180,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Outras atividades administrativas e serviços complementares</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="30">
-        <v>92013</v>
+        <v>74040</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C181" s="25" t="str">
-        <f>VLOOKUP(B181,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>5980</v>
-      </c>
-      <c r="D181" s="25" t="str">
-        <f>VLOOKUP(B181,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</v>
+        <v>394</v>
+      </c>
+      <c r="C181" t="s">
+        <v>157</v>
+      </c>
+      <c r="D181" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="30">
-        <v>92014</v>
+        <v>74060</v>
       </c>
       <c r="B182" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="C182" s="25" t="str">
-        <f>VLOOKUP(B182,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>5980</v>
-      </c>
-      <c r="D182" s="25" t="str">
-        <f>VLOOKUP(B182,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</v>
+        <v>396</v>
+      </c>
+      <c r="C182" t="s">
+        <v>157</v>
+      </c>
+      <c r="D182" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="30">
-        <v>92015</v>
+        <v>74090</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C183" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D183" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="30">
-        <v>92020</v>
+      <c r="A184" s="30" t="s">
+        <v>355</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C184" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D184" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="30">
-        <v>92030</v>
+        <v>74050</v>
       </c>
       <c r="B185" s="27" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="C185" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D185" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="30">
-        <v>92040</v>
+        <v>75011</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="C186" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D186" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="30">
-        <v>93010</v>
+        <v>75012</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="C187" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D187" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="30">
-        <v>93020</v>
+        <v>75013</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="C188" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D188" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="30">
-        <v>93030</v>
+        <v>75014</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="C189" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D189" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="30">
-        <v>93091</v>
+        <v>75015</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="C190" t="s">
-        <v>167</v>
-      </c>
-      <c r="D190" t="s">
-        <v>168</v>
+        <v>344</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D190" s="25" t="str">
+        <f>VLOOKUP(B190,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Administração pública, defesa e seguridade social</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="30">
-        <v>93092</v>
+        <v>75016</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="C191" s="25" t="str">
-        <f>VLOOKUP(B191,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>9480</v>
+        <v>345</v>
+      </c>
+      <c r="C191" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="D191" s="25" t="str">
         <f>VLOOKUP(B191,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Organizações associativas e outros serviços pessoais</v>
+        <v>Administração pública, defesa e seguridade social</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="30" t="s">
-        <v>373</v>
+      <c r="A192" s="30">
+        <v>75017</v>
       </c>
       <c r="B192" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C192" t="s">
-        <v>171</v>
-      </c>
-      <c r="D192" t="s">
-        <v>4</v>
+        <v>346</v>
+      </c>
+      <c r="C192" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D192" s="25" t="str">
+        <f>VLOOKUP(B192,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Administração pública, defesa e seguridade social</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="30" t="s">
-        <v>374</v>
+      <c r="A193" s="30">
+        <v>75020</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="C193" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D193" s="25" t="s">
-        <v>147</v>
+        <v>347</v>
+      </c>
+      <c r="C193" t="s">
+        <v>160</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="30" t="s">
-        <v>376</v>
+      <c r="A194" s="30">
+        <v>80011</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="C194" s="25" t="str">
-        <f>VLOOKUP(B194,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>6480</v>
-      </c>
-      <c r="D194" s="25" t="str">
-        <f>VLOOKUP(B194,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Intermediação financeira, seguros e previdência complementar</v>
+        <v>348</v>
+      </c>
+      <c r="C194" t="s">
+        <v>161</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="30">
-        <v>67010</v>
+        <v>80090</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D195" s="25" t="s">
-        <v>147</v>
+        <v>161</v>
+      </c>
+      <c r="D195" s="25" t="str">
+        <f>VLOOKUP(B195,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Educação pública</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="30">
-        <v>67020</v>
+        <v>80012</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="C196" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D196" s="25" t="s">
-        <v>147</v>
+        <v>349</v>
+      </c>
+      <c r="C196" t="s">
+        <v>162</v>
+      </c>
+      <c r="D196" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="30" t="s">
-        <v>380</v>
+      <c r="A197" s="30">
+        <v>85011</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>381</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D197" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="30">
-        <v>70002</v>
+        <v>85013</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C198" s="25" t="str">
-        <f>VLOOKUP(B198,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>7880</v>
-      </c>
-      <c r="D198" s="25" t="str">
-        <f>VLOOKUP(B198,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Outras atividades administrativas e serviços complementares</v>
+        <v>352</v>
+      </c>
+      <c r="C198" t="s">
+        <v>164</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="30">
-        <v>71010</v>
+        <v>85012</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C199" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D199" s="25" t="s">
-        <v>156</v>
+        <v>351</v>
+      </c>
+      <c r="C199" t="s">
+        <v>165</v>
+      </c>
+      <c r="D199" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="30">
-        <v>71020</v>
+        <v>92015</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="C200" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D200" s="25" t="s">
-        <v>156</v>
+        <v>363</v>
+      </c>
+      <c r="C200" t="s">
+        <v>167</v>
+      </c>
+      <c r="D200" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="30">
-        <v>71030</v>
+        <v>92030</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="C201" s="25" t="str">
-        <f>VLOOKUP(B201,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>7700</v>
-      </c>
-      <c r="D201" s="25" t="str">
-        <f>VLOOKUP(B201,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</v>
+        <v>365</v>
+      </c>
+      <c r="C201" t="s">
+        <v>167</v>
+      </c>
+      <c r="D201" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="30">
-        <v>72010</v>
+        <v>92040</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C202" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D202" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="30">
-        <v>72020</v>
+        <v>93091</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C203" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="D203" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="30" t="s">
-        <v>387</v>
+      <c r="A204" s="30">
+        <v>91010</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="C204" t="s">
-        <v>151</v>
-      </c>
-      <c r="D204" t="s">
-        <v>152</v>
+        <v>58</v>
+      </c>
+      <c r="C204" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D204" s="25" t="str">
+        <f>VLOOKUP(B204,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Organizações associativas e outros serviços pessoais</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="30">
-        <v>74011</v>
+        <v>91020</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="C205" t="s">
-        <v>149</v>
-      </c>
-      <c r="D205" t="s">
-        <v>150</v>
+        <v>357</v>
+      </c>
+      <c r="C205" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="30">
-        <v>74012</v>
+        <v>91091</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="C206" t="s">
-        <v>149</v>
-      </c>
-      <c r="D206" t="s">
-        <v>150</v>
+        <v>358</v>
+      </c>
+      <c r="C206" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D206" s="25" t="str">
+        <f>VLOOKUP(B206,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Organizações associativas e outros serviços pessoais</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="30">
-        <v>74021</v>
+        <v>91092</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="C207" t="s">
-        <v>151</v>
-      </c>
-      <c r="D207" t="s">
-        <v>152</v>
+        <v>359</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D207" s="25" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="30">
-        <v>74022</v>
+        <v>93010</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="C208" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D208" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="30">
-        <v>74030</v>
+        <v>93020</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="C209" s="25" t="str">
-        <f>VLOOKUP(B209,'Descrição (2020)'!$B:$D,2,0)</f>
-        <v>7380</v>
-      </c>
-      <c r="D209" s="25" t="str">
-        <f>VLOOKUP(B209,'Descrição (2020)'!$B:$D,3,0)</f>
-        <v>Outras atividades profissionais, científicas e técnicas</v>
+        <v>368</v>
+      </c>
+      <c r="C209" t="s">
+        <v>169</v>
+      </c>
+      <c r="D209" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="30">
-        <v>74040</v>
+        <v>93030</v>
       </c>
       <c r="B210" s="27" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="C210" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D210" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="30">
-        <v>74050</v>
+        <v>93092</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="C211" t="s">
-        <v>159</v>
-      </c>
-      <c r="D211" t="s">
-        <v>27</v>
+        <v>371</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D211" s="25" t="str">
+        <f>VLOOKUP(B211,'Descrição (2020)'!$B:$D,3,0)</f>
+        <v>Organizações associativas e outros serviços pessoais</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="30">
-        <v>74060</v>
+      <c r="A212" s="30" t="s">
+        <v>373</v>
       </c>
       <c r="B212" s="27" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C212" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D212" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="30">
-        <v>74090</v>
-      </c>
-      <c r="B213" s="27" t="s">
-        <v>397</v>
+      <c r="A213" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B213" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="C213" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D213" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -8150,6 +8132,12 @@
       <c r="B214" s="27" t="s">
         <v>399</v>
       </c>
+      <c r="C214" t="s">
+        <v>153</v>
+      </c>
+      <c r="D214" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="30" t="s">
@@ -8157,6 +8145,12 @@
       </c>
       <c r="B215" s="25" t="s">
         <v>402</v>
+      </c>
+      <c r="C215" t="s">
+        <v>153</v>
+      </c>
+      <c r="D215" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
